--- a/AAII_Financials/Quarterly/DGWR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DGWR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>DGWR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,14 +725,14 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,7 +757,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -758,8 +765,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -779,16 +789,16 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,7 +931,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,16 +964,17 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -959,45 +986,51 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,57 +1042,61 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
       </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
@@ -1067,66 +1104,75 @@
       <c r="K21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1542,11 +1629,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1557,13 +1644,16 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1600,7 +1693,7 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1663,8 +1762,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
@@ -1678,8 +1777,11 @@
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1687,7 +1789,7 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -1696,19 +1798,22 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1754,7 +1862,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1774,7 +1885,7 @@
         <v>1200</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -1782,8 +1893,8 @@
       <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+      <c r="H49" s="3">
+        <v>100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>400</v>
       </c>
       <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1974,7 +2105,7 @@
         <v>3100</v>
       </c>
       <c r="E57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F57" s="3">
         <v>3000</v>
@@ -1983,7 +2114,7 @@
         <v>3000</v>
       </c>
       <c r="H57" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I57" s="3">
         <v>2900</v>
@@ -1994,25 +2125,28 @@
       <c r="K57" s="3">
         <v>2900</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1000</v>
       </c>
       <c r="G58" s="3">
         <v>1000</v>
       </c>
       <c r="H58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I58" s="3">
         <v>900</v>
@@ -2023,66 +2157,75 @@
       <c r="K58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4800</v>
       </c>
       <c r="G60" s="3">
         <v>4800</v>
       </c>
       <c r="H60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4800</v>
       </c>
       <c r="G66" s="3">
         <v>4800</v>
       </c>
       <c r="H66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-4500</v>
       </c>
       <c r="G76" s="3">
         <v>-4500</v>
       </c>
       <c r="H76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-4300</v>
       </c>
       <c r="J76" s="3">
         <v>-4300</v>
       </c>
       <c r="K76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="L76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2643,7 +2842,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,19 +3070,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,26 +3164,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3174,12 +3426,15 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DGWR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DGWR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>DGWR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,63 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -728,14 +732,14 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -748,8 +752,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +767,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -768,8 +775,8 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,16 +802,16 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -934,7 +957,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,19 +991,20 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -989,48 +1016,54 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,63 +1076,67 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
@@ -1107,72 +1144,81 @@
       <c r="L21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1706,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1632,11 +1719,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -1647,13 +1734,16 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,19 +1774,22 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1765,8 +1864,8 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
@@ -1780,19 +1879,22 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -1801,19 +1903,22 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1865,7 +1973,7 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -1876,19 +1984,22 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E49" s="3">
         <v>1200</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -1896,8 +2007,8 @@
       <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+      <c r="I49" s="3">
+        <v>100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
       </c>
       <c r="H54" s="3">
+        <v>400</v>
+      </c>
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2108,7 +2239,7 @@
         <v>3100</v>
       </c>
       <c r="F57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G57" s="3">
         <v>3000</v>
@@ -2117,7 +2248,7 @@
         <v>3000</v>
       </c>
       <c r="I57" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J57" s="3">
         <v>2900</v>
@@ -2128,28 +2259,31 @@
       <c r="L57" s="3">
         <v>2900</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1000</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
       </c>
       <c r="I58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J58" s="3">
         <v>900</v>
@@ -2160,72 +2294,81 @@
       <c r="L58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4800</v>
       </c>
       <c r="H60" s="3">
         <v>4800</v>
       </c>
       <c r="I60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2399,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>4800</v>
       </c>
       <c r="H66" s="3">
         <v>4800</v>
       </c>
       <c r="I66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-4500</v>
       </c>
       <c r="H76" s="3">
         <v>-4500</v>
       </c>
       <c r="I76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-4300</v>
       </c>
       <c r="K76" s="3">
         <v>-4300</v>
       </c>
       <c r="L76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="M76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2845,7 +3044,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,22 +3291,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3394,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3176,20 +3406,20 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3584,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3654,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3429,12 +3681,15 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DGWR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DGWR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>DGWR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,72 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -735,13 +739,13 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,7 +777,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -778,8 +785,8 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
@@ -790,13 +797,16 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -805,16 +815,16 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,7 +983,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1018,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1001,13 +1028,13 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1019,51 +1046,57 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,69 +1110,73 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
@@ -1147,78 +1184,87 @@
       <c r="M21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
       <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1793,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1722,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -1737,13 +1824,16 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,22 +1867,25 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1867,8 +1966,8 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -1882,22 +1981,25 @@
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -1906,19 +2008,22 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1976,7 +2084,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1987,22 +2095,25 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1200</v>
       </c>
       <c r="F49" s="3">
         <v>1200</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2010,8 +2121,8 @@
       <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
+      <c r="J49" s="3">
+        <v>100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2285,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2171,34 +2297,37 @@
         <v>1400</v>
       </c>
       <c r="E54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>400</v>
       </c>
       <c r="I54" s="3">
+        <v>400</v>
+      </c>
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2242,7 +2373,7 @@
         <v>3100</v>
       </c>
       <c r="G57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H57" s="3">
         <v>3000</v>
@@ -2251,7 +2382,7 @@
         <v>3000</v>
       </c>
       <c r="J57" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K57" s="3">
         <v>2900</v>
@@ -2262,31 +2393,34 @@
       <c r="M57" s="3">
         <v>2900</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1000</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
       </c>
       <c r="J58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K58" s="3">
         <v>900</v>
@@ -2297,78 +2431,87 @@
       <c r="M58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>5800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4800</v>
       </c>
       <c r="I60" s="3">
         <v>4800</v>
       </c>
       <c r="J60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4800</v>
       </c>
       <c r="I66" s="3">
         <v>4800</v>
       </c>
       <c r="J66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-4500</v>
       </c>
       <c r="I76" s="3">
         <v>-4500</v>
       </c>
       <c r="J76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-4300</v>
       </c>
       <c r="L76" s="3">
         <v>-4300</v>
       </c>
       <c r="M76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="N76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3047,7 +3246,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3456,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3251,34 +3468,37 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3303,14 +3524,14 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>100</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3409,20 +3639,20 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3596,34 +3842,37 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +3906,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3684,12 +3936,15 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DGWR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DGWR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>DGWR</t>
   </si>
@@ -3518,26 +3518,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/DGWR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DGWR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>DGWR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,100 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -762,8 +769,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,19 +793,19 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
@@ -800,25 +813,31 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -826,11 +845,11 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -986,10 +1031,10 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1070,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1031,16 +1084,16 @@
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1049,54 +1102,66 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,160 +1176,186 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1965,10 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1812,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -1827,13 +2000,19 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,28 +2049,34 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1969,11 +2166,11 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
@@ -1984,8 +2181,14 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1993,37 +2196,43 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2269,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2087,10 +2302,10 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2107,28 +2328,28 @@
         <v>1000</v>
       </c>
       <c r="E49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1200</v>
       </c>
-      <c r="H49" s="3">
-        <v>100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>100</v>
-      </c>
       <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
+      <c r="K49" s="3">
+        <v>100</v>
+      </c>
+      <c r="L49" s="3">
+        <v>100</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E54" s="3">
         <v>1400</v>
       </c>
       <c r="F54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2376,19 +2637,19 @@
         <v>3100</v>
       </c>
       <c r="H57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J57" s="3">
         <v>3000</v>
       </c>
       <c r="K57" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="L57" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="M57" s="3">
         <v>2900</v>
@@ -2396,37 +2657,43 @@
       <c r="N57" s="3">
         <v>2900</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P57" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E58" s="3">
         <v>1400</v>
       </c>
       <c r="F58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H58" s="3">
         <v>1300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
       </c>
       <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
-        <v>900</v>
-      </c>
       <c r="L58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M58" s="3">
         <v>900</v>
@@ -2434,84 +2701,102 @@
       <c r="N58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>900</v>
+      </c>
+      <c r="P58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>600</v>
+      </c>
+      <c r="P59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="E60" s="3">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="F60" s="3">
         <v>5500</v>
       </c>
       <c r="G60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>4300</v>
       </c>
       <c r="M60" s="3">
         <v>4400</v>
       </c>
       <c r="N60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2833,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="E66" s="3">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="F66" s="3">
         <v>5500</v>
       </c>
       <c r="G66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I66" s="3">
         <v>6000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>4300</v>
       </c>
       <c r="M66" s="3">
         <v>4400</v>
       </c>
       <c r="N66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P66" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,16 +3159,22 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3249,10 +3646,10 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,34 +3886,40 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -3495,10 +3928,16 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3528,22 +3969,22 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,13 +4080,19 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3642,22 +4101,22 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3845,34 +4336,40 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4406,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3939,12 +4442,18 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>
